--- a/resources/materials/Sample-VBCS-DataModel.xlsx
+++ b/resources/materials/Sample-VBCS-DataModel.xlsx
@@ -1,98 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsowiron/Oracle/ORADOCS/ORADOCS/1. MyFolders/x.AVBCS/Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodney/Oracle/GitHub/CloudNative-VBCS/resources/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18220440-42D9-4449-B89C-DD26E267F137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B153063F-E8E4-3B40-9648-8E0EB0E89A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1920" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="1480" yWindow="2900" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="2" r:id="rId1"/>
     <sheet name="Department" sheetId="3" r:id="rId2"/>
     <sheet name="Employee" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>hireDate</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Elizabeth Davis</t>
-  </si>
-  <si>
-    <t>edavis@example.com</t>
-  </si>
-  <si>
-    <t>James Miller</t>
-  </si>
-  <si>
-    <t>jmiller@example.com</t>
-  </si>
-  <si>
-    <t>Jennifer Garcia</t>
-  </si>
-  <si>
-    <t>jgarcia@example.com</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>mwilliams@example.com</t>
-  </si>
-  <si>
-    <t>Sarah Brown</t>
-  </si>
-  <si>
-    <t>sbrown@example.com</t>
-  </si>
-  <si>
-    <t>David Smith</t>
-  </si>
-  <si>
-    <t>dsmith@example.com</t>
-  </si>
-  <si>
-    <t>Karen Johnson</t>
-  </si>
-  <si>
-    <t>kjohnson@example.com</t>
-  </si>
-  <si>
-    <t>Richard Wilson</t>
-  </si>
-  <si>
-    <t>rwilson@example.com</t>
-  </si>
-  <si>
-    <t>Linda Jones</t>
-  </si>
-  <si>
-    <t>ljones@example.com</t>
-  </si>
-  <si>
     <t>Floor 4</t>
   </si>
   <si>
@@ -123,14 +57,110 @@
     <t>Administration</t>
   </si>
   <si>
-    <t>location</t>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/103.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/102.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/104.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/105.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/106.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/107.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/101.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/108.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/109.png</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/webfolder/technetwork/jet/public_samples/WorkBetter/public_html/css/images/people/110.png</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Hire Date</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Shelly</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +291,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -606,12 +644,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -645,6 +686,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -964,21 +1006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -994,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1010,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1019,24 +1064,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1055,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1066,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1077,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1088,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1099,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1111,38 +1161,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1150,16 +1214,26 @@
       <c r="D2" s="1">
         <v>38885</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>CONCATENATE(B2,".",F2,"@acme.com")</f>
+        <v>Sean.US@acme.com</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1167,16 +1241,26 @@
       <c r="D3" s="1">
         <v>39712</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E11" si="0">CONCATENATE(B3,".",F3,"@acme.com")</f>
+        <v>Chris.US@acme.com</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1184,16 +1268,26 @@
       <c r="D4" s="1">
         <v>37999</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dave.GB@acme.com</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1201,16 +1295,26 @@
       <c r="D5" s="1">
         <v>39816</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Steve.CA@acme.com</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1218,16 +1322,26 @@
       <c r="D6" s="1">
         <v>40319</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane.BR@acme.com</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1235,16 +1349,26 @@
       <c r="D7" s="1">
         <v>39624</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Shelly.US@acme.com</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1252,16 +1376,26 @@
       <c r="D8" s="1">
         <v>39849</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tiffany.US@acme.com</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1269,16 +1403,26 @@
       <c r="D9" s="1">
         <v>40216</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sherry.GB@acme.com</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1286,11 +1430,59 @@
       <c r="D10" s="1">
         <v>38581</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sanjay.US@acme.com</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38582</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>James.US@acme.com</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{863944B8-1B22-E149-BA2B-1FF723694F53}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{65E88A2B-AB0F-384E-9952-5E32FB982948}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{7251DDF7-BC0D-2946-90A4-8B6F1D8FC865}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{6519A56F-9A32-CD4D-A6F7-D41A393175A6}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{0BB01D1B-5525-C24C-BA82-F485851159EF}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{3692BEA2-1DDC-F549-A2CC-8B06BC566C0B}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{61C1A269-EDAE-2D49-8F10-57480A12A38E}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{E2E7F296-D5FA-544F-A48B-0ACE075ACB8E}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{05E63D58-6CA1-324E-9635-F260161D44B2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/materials/Sample-VBCS-DataModel.xlsx
+++ b/resources/materials/Sample-VBCS-DataModel.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodney/Oracle/GitHub/CloudNative-VBCS/resources/materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsowiron/Oracle/GitHub/CloudNative-VBCS/resources/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B153063F-E8E4-3B40-9648-8E0EB0E89A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F12D2B-24A6-754C-B382-98D86B6A66CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2900" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="2900" windowWidth="25920" windowHeight="9080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="2" r:id="rId1"/>
     <sheet name="Department" sheetId="3" r:id="rId2"/>
     <sheet name="Employee" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1010,12 +1010,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,12 +1069,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -1165,14 +1166,17 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="105.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
